--- a/CashFlow/XLNX_cashflow.xlsx
+++ b/CashFlow/XLNX_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1178000000.0</v>
+        <v>29024000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1206000000.0</v>
+        <v>54914000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>930725000.0</v>
+        <v>51474000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>617325000.0</v>
+        <v>17947000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>281296000.0</v>
+        <v>-38874000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-86390000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>22210000.0</v>
+        <v>421000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>6114000.0</v>
+        <v>414000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>24333000.0</v>
+        <v>321851000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>9170000.0</v>
+        <v>205021000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>9274000.0</v>
+        <v>118954000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>33490000.0</v>
